--- a/compilado/excel/template_productoInicio.xlsx
+++ b/compilado/excel/template_productoInicio.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$12:$I$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$12:$H$12</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>N.S.N.</t>
   </si>
@@ -30,25 +30,22 @@
     <t>N° DE PARTE</t>
   </si>
   <si>
-    <t>Ubicación</t>
-  </si>
-  <si>
-    <t>Producto</t>
-  </si>
-  <si>
     <t>Nº</t>
   </si>
   <si>
     <t>Saldo en Bodega</t>
   </si>
   <si>
-    <t>$Valor</t>
+    <t>Reporte Saldo de Stock de Inventario Inicio Año 2017</t>
   </si>
   <si>
-    <t>Temporada</t>
+    <t>Valor unitario en USD</t>
   </si>
   <si>
-    <t>Reporte Saldo de Stock de Inventario Inicio Año 2017</t>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>REPUESTOS</t>
   </si>
 </sst>
 </file>
@@ -208,14 +205,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -252,7 +248,6 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -647,72 +642,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="50.140625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="14" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="11"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="10"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -721,22 +711,20 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>9</v>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>5</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
@@ -744,88 +732,80 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>5</v>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>3</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>0</v>
+      <c r="E12" s="20" t="s">
+        <v>1</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="F12" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="22" t="s">
+      <c r="H12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A12:I12">
+  <autoFilter ref="A12:H12">
     <sortState ref="A12:H12">
       <sortCondition ref="A12"/>
     </sortState>
